--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>659050.7429360106</v>
+        <v>659374.3579097206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238721</v>
+        <v>2688149.654238723</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7757448.329202879</v>
+        <v>7740406.182713417</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -668,10 +670,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>390.5884865558619</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>320.2344011398809</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291307</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>169.0492751881149</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>305.6096491809498</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>280.264545408229</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.45080330270152</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>256.4561542453789</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1138,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>25.35996799970722</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.96189723698674</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>366.8197929181246</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>153.7191972801529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>171.784294541804</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -1667,7 +1669,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>364.5066089074071</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>22.96189723698673</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>344.1098890995761</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -1859,7 +1861,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>289.1043232126777</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.0116202804579</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>95.98918911403652</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.0088143902016</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>349.7480363891204</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>152.7855877686576</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>256.4561542453789</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2321,19 +2323,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>296.2487491243121</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>233.2385090293388</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2479,7 +2481,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>87.95308749070786</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>63.19987907593206</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2564,13 +2566,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>233.2385090293387</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>61.34188889710627</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -2725,7 +2727,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.66637815986185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2807,7 +2809,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>102.4606870030763</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>256.4561542453787</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>314.3926718924063</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>287.9802029231674</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3193,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20.98476809240994</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.9683453503095</v>
+        <v>214.1012364215627</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>159.3149947016328</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>53.44091301856404</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -3506,7 +3508,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3515,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>54.70041719277038</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>256.7115579699417</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130.4178928586277</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>152.8650462599263</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -3679,7 +3681,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>13.73332541442075</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -3803,7 +3805,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>315.2888038066676</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>114.7890777533881</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>179.4080122938798</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3989,13 +3991,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>228.7112106003003</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.7593122409335</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4110,7 +4112,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881453</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -4198,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1623.046950069302</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.871448572232</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D2" t="n">
-        <v>844.4303197889001</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E2" t="n">
-        <v>441.8467949054446</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F2" t="n">
-        <v>441.8467949054446</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V2" t="n">
-        <v>2023.541695780699</v>
+        <v>2042.179413016694</v>
       </c>
       <c r="W2" t="n">
-        <v>2023.541695780699</v>
+        <v>2042.179413016694</v>
       </c>
       <c r="X2" t="n">
-        <v>2023.541695780699</v>
+        <v>1652.726807949751</v>
       </c>
       <c r="Y2" t="n">
-        <v>2023.541695780699</v>
+        <v>1652.726807949751</v>
       </c>
     </row>
     <row r="3">
@@ -4401,37 +4403,37 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K3" t="n">
-        <v>140.0776713099957</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>623.6437572083089</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083089</v>
+        <v>952.550121170372</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
         <v>2206.800784875113</v>
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C4" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D4" t="n">
-        <v>215.5670240020981</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E4" t="n">
-        <v>215.5670240020981</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F4" t="n">
-        <v>215.5670240020981</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>464.2074085715658</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C5" t="n">
-        <v>464.2074085715658</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="D5" t="n">
-        <v>464.2074085715658</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="E5" t="n">
-        <v>464.2074085715658</v>
+        <v>772.9040239058586</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>356.0095854358364</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>1544.288363774714</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>1261.192863362362</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X5" t="n">
-        <v>1261.192863362362</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y5" t="n">
-        <v>864.7021542829627</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M6" t="n">
-        <v>1436.116207068686</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N6" t="n">
-        <v>1849.128222486198</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.648505077179</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
         <v>2365.648505077179</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.6682721353168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C7" t="n">
-        <v>714.463154201306</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D7" t="n">
-        <v>558.8300411038207</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E7" t="n">
-        <v>403.2712289630232</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F7" t="n">
-        <v>245.9452941759961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4762,13 +4764,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1965.153759365783</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C8" t="n">
-        <v>1571.978257868714</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D8" t="n">
-        <v>1186.537129085382</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E8" t="n">
-        <v>783.9536042019261</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F8" t="n">
-        <v>367.0591657319038</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O8" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2340.032375784546</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1997.925566488064</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1626.926531456352</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565964</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631986</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>2021.614212075287</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P9" t="n">
         <v>2365.648505077179</v>
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="C10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="D10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="E10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4996,16 +4998,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>77.69124027544164</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>825.9296003819453</v>
+        <v>1965.153759365782</v>
       </c>
       <c r="C11" t="n">
-        <v>432.7540988848759</v>
+        <v>1571.978257868713</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1571.978257868713</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>1771.148867604884</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>1381.696262537941</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y11" t="n">
-        <v>1226.424346093342</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L12" t="n">
-        <v>530.879055999857</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O12" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5163,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>185.6500870090788</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="C14" t="n">
-        <v>185.6500870090788</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="D14" t="n">
-        <v>185.6500870090788</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="E14" t="n">
-        <v>185.6500870090788</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="F14" t="n">
-        <v>185.6500870090788</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6500870090788</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="H14" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M14" t="n">
-        <v>1044.265390756362</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N14" t="n">
-        <v>1572.076674393824</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>2012.116275286153</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T14" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U14" t="n">
-        <v>1681.888704297768</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V14" t="n">
-        <v>1339.781895001287</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W14" t="n">
-        <v>971.5934011554208</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X14" t="n">
-        <v>582.1407960884776</v>
+        <v>617.3231686171081</v>
       </c>
       <c r="Y14" t="n">
-        <v>185.6500870090788</v>
+        <v>220.8324595377092</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>305.4650404492648</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>789.031126347578</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1374.52913135418</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P15" t="n">
         <v>2365.648505077179</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
-        <v>100.8850758683575</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E16" t="n">
-        <v>100.8850758683575</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>100.8850758683575</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>100.8850758683575</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>100.8850758683575</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2327.655591362702</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.480089865633</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D17" t="n">
-        <v>1549.0389610823</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y17" t="n">
-        <v>2327.655591362702</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L18" t="n">
-        <v>272.5108437565973</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5704,19 +5706,19 @@
         <v>713.0409408113302</v>
       </c>
       <c r="U19" t="n">
-        <v>713.0409408113302</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V19" t="n">
-        <v>447.0615956321544</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W19" t="n">
-        <v>447.0615956321544</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="X19" t="n">
-        <v>212.9812734151375</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.9812734151375</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1164.818808418026</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C20" t="n">
-        <v>771.6433069209571</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U20" t="n">
-        <v>2674.910107537016</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V20" t="n">
-        <v>2332.803298240535</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W20" t="n">
-        <v>1961.804263208822</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X20" t="n">
-        <v>1961.804263208822</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y20" t="n">
-        <v>1565.313554129423</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.5868050664922</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5868050664922</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D22" t="n">
-        <v>543.2579285324946</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E22" t="n">
-        <v>387.699116391697</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F22" t="n">
-        <v>230.37318160467</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>697.5868050664922</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>697.5868050664922</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="X22" t="n">
-        <v>697.5868050664922</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y22" t="n">
-        <v>697.5868050664922</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2073.376476849992</v>
+        <v>1078.618840366323</v>
       </c>
       <c r="C23" t="n">
-        <v>1680.200975352922</v>
+        <v>685.4433388692532</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.75984656959</v>
+        <v>685.4433388692532</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861347</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F23" t="n">
-        <v>475.2818832161124</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6002,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2844.462869050714</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205776</v>
+        <v>2246.603330188831</v>
       </c>
       <c r="W23" t="n">
-        <v>3105.956385205776</v>
+        <v>1875.604295157118</v>
       </c>
       <c r="X23" t="n">
-        <v>2870.361931640788</v>
+        <v>1875.604295157118</v>
       </c>
       <c r="Y23" t="n">
-        <v>2473.871222561389</v>
+        <v>1479.11358607772</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L24" t="n">
-        <v>346.0196676966397</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>973.7913173233209</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1629.56928853388</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2463.555983114101</v>
+        <v>2530.19303163674</v>
       </c>
       <c r="C25" t="n">
-        <v>2293.35086518009</v>
+        <v>2359.987913702729</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>2359.987913702729</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>2359.987913702729</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>2359.987913702729</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>2359.987913702729</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>2450.472043647964</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>2636.763621986228</v>
       </c>
       <c r="N25" t="n">
         <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>3102.534188835724</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>2779.239312020902</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.401050328041</v>
       </c>
       <c r="U25" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.401050328041</v>
       </c>
       <c r="V25" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.401050328041</v>
       </c>
       <c r="W25" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.401050328041</v>
       </c>
       <c r="X25" t="n">
-        <v>2871.876062988759</v>
+        <v>2715.401050328041</v>
       </c>
       <c r="Y25" t="n">
-        <v>2648.764001805403</v>
+        <v>2715.401050328041</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2308.970930414981</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="C26" t="n">
-        <v>1915.795428917911</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="D26" t="n">
-        <v>1530.354300134579</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E26" t="n">
-        <v>1127.770775251123</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F26" t="n">
-        <v>710.876336781101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G26" t="n">
-        <v>297.7135812691042</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
         <v>62.11912770411553</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V26" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W26" t="n">
-        <v>3105.956385205776</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.956385205776</v>
+        <v>1647.129236161699</v>
       </c>
       <c r="Y26" t="n">
-        <v>2709.465676126377</v>
+        <v>1250.6385270823</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>1863.93438008877</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O27" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2873.610610797443</v>
+        <v>869.0961595639906</v>
       </c>
       <c r="C28" t="n">
-        <v>2703.405492863432</v>
+        <v>698.8910416299798</v>
       </c>
       <c r="D28" t="n">
-        <v>2547.772379765946</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="E28" t="n">
-        <v>2392.213567625149</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F28" t="n">
-        <v>2234.887632838122</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G28" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y28" t="n">
-        <v>3058.818629488744</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2397.459527283501</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C29" t="n">
-        <v>2004.284025786432</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D29" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F29" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
         <v>62.11912770411553</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2797.954272994898</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2797.954272994898</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V29" t="n">
-        <v>2797.954272994898</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W29" t="n">
-        <v>2797.954272994898</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X29" t="n">
-        <v>2797.954272994898</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y29" t="n">
-        <v>2797.954272994898</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C30" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D30" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E30" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F30" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G30" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H30" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.359996292367</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>1590.92608219068</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>2218.697731817361</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N30" t="n">
-        <v>2218.697731817361</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O30" t="n">
-        <v>2700.335016489379</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R30" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S30" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T30" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U30" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V30" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W30" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X30" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y30" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="31">
@@ -6649,22 +6651,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U31" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V31" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W31" t="n">
-        <v>704.5195297957904</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>470.4392075787734</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2460.189498140842</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C32" t="n">
-        <v>2142.621142693967</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.180013910635</v>
+        <v>769.902660035923</v>
       </c>
       <c r="E32" t="n">
-        <v>1354.596489027179</v>
+        <v>769.902660035923</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>353.0082215659007</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V32" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W32" t="n">
-        <v>2460.189498140842</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X32" t="n">
-        <v>2460.189498140842</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y32" t="n">
-        <v>2460.189498140842</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
         <v>62.11912770411553</v>
@@ -6886,22 +6888,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>727.847098413902</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U34" t="n">
-        <v>727.847098413902</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>727.847098413902</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2535.796644191037</v>
+        <v>1326.874862298514</v>
       </c>
       <c r="C35" t="n">
-        <v>2142.621142693967</v>
+        <v>1326.874862298514</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.180013910635</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="E35" t="n">
-        <v>1354.596489027179</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G35" t="n">
         <v>524.5392950451601</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V35" t="n">
-        <v>3105.956385205776</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W35" t="n">
-        <v>3105.956385205776</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="X35" t="n">
-        <v>3105.956385205776</v>
+        <v>1543.13873747181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2936.291389902433</v>
+        <v>1326.874862298514</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>787.6208502301403</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K36" t="n">
-        <v>787.6208502301403</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L36" t="n">
-        <v>1271.186936128453</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="M36" t="n">
-        <v>1898.958585755135</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="N36" t="n">
-        <v>2554.736556965694</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="O36" t="n">
-        <v>3071.256839556675</v>
+        <v>2465.969924934489</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q36" t="n">
         <v>3105.956385205776</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>271.6586600656848</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C37" t="n">
-        <v>271.6586600656848</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D37" t="n">
-        <v>271.6586600656848</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E37" t="n">
-        <v>116.0998479248873</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T37" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U37" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V37" t="n">
-        <v>494.7707212490415</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W37" t="n">
-        <v>494.7707212490415</v>
+        <v>2822.625983136954</v>
       </c>
       <c r="X37" t="n">
-        <v>494.7707212490415</v>
+        <v>2588.545660919937</v>
       </c>
       <c r="Y37" t="n">
-        <v>271.6586600656848</v>
+        <v>2365.43359973658</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1660.213721337995</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C38" t="n">
-        <v>1267.038219840925</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D38" t="n">
-        <v>881.5970910575932</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="E38" t="n">
-        <v>479.0135661741377</v>
+        <v>1085.766385253034</v>
       </c>
       <c r="F38" t="n">
-        <v>62.11912770411553</v>
+        <v>668.8719467830116</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411553</v>
+        <v>255.7091912710147</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W38" t="n">
-        <v>2846.651781195734</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X38" t="n">
-        <v>2457.199176128791</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y38" t="n">
-        <v>2060.708467049392</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301403</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>1271.186936128453</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1898.958585755135</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>2554.736556965694</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>3071.256839556675</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="C40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="D40" t="n">
-        <v>831.8309049339227</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="E40" t="n">
-        <v>676.2720927931252</v>
+        <v>543.177667430203</v>
       </c>
       <c r="F40" t="n">
-        <v>518.9461580060981</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G40" t="n">
-        <v>350.6921041055436</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H40" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7366,16 +7368,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>593.6317461087201</v>
+        <v>1192.540435146691</v>
       </c>
       <c r="C41" t="n">
-        <v>200.4562446116507</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="D41" t="n">
-        <v>200.4562446116507</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="E41" t="n">
-        <v>200.4562446116507</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F41" t="n">
-        <v>200.4562446116507</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G41" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2422.196584426364</v>
+        <v>3092.084339332624</v>
       </c>
       <c r="V41" t="n">
-        <v>2080.089775129883</v>
+        <v>2749.977530036143</v>
       </c>
       <c r="W41" t="n">
-        <v>1709.09074009817</v>
+        <v>2378.97849500443</v>
       </c>
       <c r="X41" t="n">
-        <v>1390.617200899516</v>
+        <v>1989.525889937487</v>
       </c>
       <c r="Y41" t="n">
-        <v>994.1264918201171</v>
+        <v>1593.035180858088</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N42" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="D43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>760.7500664282172</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>579.5298519899548</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>296.1994499211324</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411553</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>178.0676910913762</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1714.652229579398</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C44" t="n">
-        <v>1714.652229579398</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D44" t="n">
-        <v>1329.211100796066</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>926.6275759126104</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>509.7331374425881</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>509.7331374425881</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>185.6500870090788</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1304.804169167248</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1832.61545280471</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.61545280471</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2161.142036303753</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T44" t="n">
-        <v>1937.641433863169</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U44" t="n">
-        <v>1937.641433863169</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V44" t="n">
-        <v>1937.641433863169</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W44" t="n">
-        <v>1937.641433863169</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="X44" t="n">
-        <v>1937.641433863169</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y44" t="n">
-        <v>1714.652229579398</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>160.427952321271</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>160.427952321271</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>643.9940382195842</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.141762214911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.141762214911</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805892</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>882.0615091076409</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>596.6227173495417</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>330.643372170366</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154361</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7991,10 +7993,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,16 +8060,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>183.2986537257091</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>581.2880043687411</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8076,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,10 +8218,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8228,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,22 +8297,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>502.5559668112504</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8456,7 +8458,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8467,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>556.6502691852513</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8532,22 +8534,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.196945759487</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8690,7 +8692,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8702,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P11" t="n">
-        <v>277.8952841518222</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8772,19 +8774,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8933,19 +8935,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P14" t="n">
-        <v>320.6920226450452</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,22 +9008,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>350.3566023512336</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9164,7 +9166,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9176,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9246,13 +9248,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9486,19 +9488,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>588.7923855055292</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,7 +9722,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>376.8285690715891</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9732,10 +9734,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,7 +9956,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,13 +9965,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>459.8553156798577</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10203,13 +10205,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>579.1898666384019</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10355,7 +10357,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
@@ -10428,16 +10430,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10604,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069888</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,25 +10904,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11066,7 +11068,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11136,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11303,13 +11305,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>559.0064165671349</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
@@ -11376,19 +11378,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>663.2434089132784</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.4426414010149</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22604,13 +22606,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>18.45134006363588</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22708,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>113.5351286524031</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22784,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>103.421478775927</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22835,16 +22837,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>87.02449927316644</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -22939,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.9051352016867</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -22963,7 +22965,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23002,13 +23004,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>24.04094380275529</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23024,16 +23026,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>92.48239428282028</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23075,19 +23077,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>227.8352342700401</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23197,7 +23199,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>31.73789671649632</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23309,7 +23311,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23318,13 +23320,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>238.806604708452</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23510,10 +23512,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>149.0579253873703</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.782435773988311</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>108.8015838723062</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>54.44780053504479</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -23798,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>103.4214787759271</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.34431822393032</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>135.7503298808102</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23984,7 +23986,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1863878795458</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>17.54100829227502</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>1.291194197852803</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24184,16 +24186,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>24.04094380275529</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>102.3089405103088</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>152.3195699869349</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>66.12369447580254</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24379,7 +24381,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>170.1619822375162</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -24427,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>87.60371089983551</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24488,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>324.2161901191674</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>89.83064772952768</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24622,7 +24624,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.2145624116612</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>118.8049094131012</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -24743,10 +24745,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24889,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.04094380275541</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>74.85107458969236</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>121.0509250337095</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,22 +25083,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>133.0184559269796</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>224.5574566382954</v>
+        <v>178.4245655670422</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275544</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25318,10 +25320,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3117624205927</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25360,7 +25362,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
@@ -25369,13 +25371,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>266.1418027364039</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25451,7 +25453,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>110.5774867114537</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>23.65888910788266</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.138177759463218</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25606,7 +25608,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25640,13 +25642,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>239.4618768553266</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>70.26927520960612</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>39.2877042131223</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25834,19 +25836,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>83.91153943350417</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>156.8468684159734</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.7664897476714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26074,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632558.5713393178</v>
+        <v>632558.5713393175</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632558.5713393175</v>
+        <v>632558.5713393177</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>632558.5713393178</v>
+        <v>632558.5713393181</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632558.5713393181</v>
+        <v>632558.5713393175</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632558.5713393178</v>
+        <v>632558.5713393179</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712629.0049797657</v>
+        <v>632558.5713393179</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712629.0049797659</v>
+        <v>712629.0049797655</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712629.0049797659</v>
+        <v>712629.0049797661</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712629.0049797656</v>
+        <v>712629.0049797657</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712629.0049797657</v>
+        <v>712629.0049797659</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712629.0049797659</v>
+        <v>712629.0049797657</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712629.0049797659</v>
+        <v>712629.0049797657</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632558.5713393181</v>
+        <v>712629.0049797659</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070291</v>
       </c>
       <c r="C2" t="n">
         <v>169394.3482070292</v>
@@ -26320,16 +26322,16 @@
         <v>169394.3482070292</v>
       </c>
       <c r="E2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="F2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="G2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="H2" t="n">
-        <v>190834.012360257</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="I2" t="n">
         <v>190834.012360257</v>
@@ -26338,7 +26340,7 @@
         <v>190834.012360257</v>
       </c>
       <c r="K2" t="n">
-        <v>190834.0123602571</v>
+        <v>190834.012360257</v>
       </c>
       <c r="L2" t="n">
         <v>190834.012360257</v>
@@ -26347,13 +26349,13 @@
         <v>190834.0123602571</v>
       </c>
       <c r="N2" t="n">
-        <v>190834.0123602571</v>
+        <v>190834.012360257</v>
       </c>
       <c r="O2" t="n">
-        <v>190834.0123602571</v>
+        <v>190834.012360257</v>
       </c>
       <c r="P2" t="n">
-        <v>169394.3482070293</v>
+        <v>190834.012360257</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>49215.85294791909</v>
       </c>
       <c r="J3" t="n">
         <v>154739.4343656034</v>
@@ -26418,28 +26420,28 @@
         <v>11907.28194961663</v>
       </c>
       <c r="C4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="D4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="E4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="F4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="G4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="H4" t="n">
-        <v>13453.11359961299</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="I4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="J4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="K4" t="n">
         <v>13453.11359961299</v>
@@ -26454,10 +26456,10 @@
         <v>13453.11359961299</v>
       </c>
       <c r="O4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="P4" t="n">
         <v>13453.11359961299</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11907.28194961663</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110294.1970115054</v>
+        <v>-110294.1970115055</v>
       </c>
       <c r="C6" t="n">
-        <v>87901.6089802394</v>
+        <v>87901.60898023943</v>
       </c>
       <c r="D6" t="n">
-        <v>87901.60898023946</v>
+        <v>87901.60898023949</v>
       </c>
       <c r="E6" t="n">
-        <v>121529.2089802395</v>
+        <v>121529.2089802394</v>
       </c>
       <c r="F6" t="n">
         <v>121529.2089802395</v>
@@ -26537,19 +26539,19 @@
         <v>121529.2089802394</v>
       </c>
       <c r="H6" t="n">
-        <v>80234.92949811215</v>
+        <v>121529.2089802394</v>
       </c>
       <c r="I6" t="n">
-        <v>130170.3617055163</v>
+        <v>80954.50875759716</v>
       </c>
       <c r="J6" t="n">
         <v>-24569.07266008717</v>
       </c>
       <c r="K6" t="n">
+        <v>130170.3617055162</v>
+      </c>
+      <c r="L6" t="n">
         <v>130170.3617055163</v>
-      </c>
-      <c r="L6" t="n">
-        <v>130170.3617055162</v>
       </c>
       <c r="M6" t="n">
         <v>130170.3617055163</v>
@@ -26558,10 +26560,10 @@
         <v>130170.3617055163</v>
       </c>
       <c r="O6" t="n">
-        <v>130170.3617055163</v>
+        <v>130170.3617055162</v>
       </c>
       <c r="P6" t="n">
-        <v>121529.2089802395</v>
+        <v>130170.3617055162</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>185.076970032149</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34711,10 +34713,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>93.7017183923758</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>495.9158915145745</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34796,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34948,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>417.1838539570837</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>407.086431761155</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705981</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35422,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P11" t="n">
-        <v>127.593836910897</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35653,19 +35655,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P14" t="n">
-        <v>170.39057540412</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>260.7596670179002</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
@@ -35896,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>227.4725996515693</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36206,19 +36208,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>503.4202726513626</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>286.7682222146709</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36452,10 +36454,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,13 +36685,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>374.483202825691</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>486.502307749513</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
@@ -38023,13 +38025,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>409.2813649694077</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38096,19 +38098,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>570.8562868639665</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>659374.3579097206</v>
+        <v>654096.6286238503</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238723</v>
+        <v>2688149.654238722</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461767</v>
+        <v>8966943.138461763</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7740406.182713417</v>
+        <v>7740406.182713419</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>119.3070638464438</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>320.2344011398809</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>305.6096491809498</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>182.4477231008283</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>256.4561542453789</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>267.4092445784593</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>25.35996799970722</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>22.96189723698674</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>366.8197929181246</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>60.1756525760668</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>92.45467287758686</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>171.784294541804</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>289.1043232126777</v>
+        <v>115.0763613754839</v>
       </c>
     </row>
     <row r="18">
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>95.98918911403652</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.7480363891204</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>291.3794228068068</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>256.4561542453789</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>307.1804683623221</v>
       </c>
       <c r="E23" t="n">
-        <v>296.2487491243121</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>63.19987907593206</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>61.34188889710627</v>
+        <v>355.9466455313268</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>312.7381906602658</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>229.2671475085637</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -3012,7 +3012,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>113.1667354347865</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3043,10 +3043,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>287.9802029231674</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>283.4384476873446</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
@@ -3252,7 +3252,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>303.3069003903691</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>214.1012364215627</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>159.3149947016328</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>54.70041719277038</v>
+        <v>54.14448028450683</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -3553,10 +3553,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>21.69514016350483</v>
       </c>
       <c r="E40" t="n">
-        <v>152.8650462599263</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>191.0982260229667</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>13.73332541442075</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>114.7890777533881</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,10 +3960,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>155.3150807587695</v>
       </c>
       <c r="X44" t="n">
-        <v>228.7112106003003</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.232062238354</v>
+        <v>974.1634128140886</v>
       </c>
       <c r="C2" t="n">
-        <v>1252.232062238354</v>
+        <v>580.9879113170191</v>
       </c>
       <c r="D2" t="n">
-        <v>866.7909334550213</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="E2" t="n">
-        <v>464.2074085715658</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>503.6092283712866</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415867</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.421412053329</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V2" t="n">
-        <v>2042.179413016694</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W2" t="n">
-        <v>2042.179413016694</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X2" t="n">
-        <v>1652.726807949751</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="Y2" t="n">
-        <v>1652.726807949751</v>
+        <v>1374.658158525486</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>367.0521161637701</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M3" t="n">
-        <v>952.550121170372</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769801</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4518,22 +4518,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.663050286384</v>
+        <v>1185.686996799307</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.487548789314</v>
+        <v>1185.686996799307</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.487548789314</v>
+        <v>1185.686996799307</v>
       </c>
       <c r="E5" t="n">
-        <v>772.9040239058586</v>
+        <v>783.1034719158517</v>
       </c>
       <c r="F5" t="n">
-        <v>356.0095854358364</v>
+        <v>783.1034719158517</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>369.9407164038549</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.648505077179</v>
+        <v>1586.181742510704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.157795997781</v>
+        <v>1586.181742510704</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4758,19 +4758,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W7" t="n">
-        <v>689.7133721932184</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X7" t="n">
-        <v>455.6330499762015</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.5209887928449</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>440.488471598613</v>
+        <v>1586.181742510704</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154359</v>
+        <v>1193.006241013635</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154359</v>
+        <v>1193.006241013635</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154359</v>
+        <v>1193.006241013635</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712866</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415867</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.421412053329</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1920.147110703377</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2268.334602834899</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2340.032375784546</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>1997.925566488064</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.926531456352</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X8" t="n">
-        <v>1237.473926389409</v>
+        <v>1586.181742510704</v>
       </c>
       <c r="Y8" t="n">
-        <v>840.9832173100099</v>
+        <v>1586.181742510704</v>
       </c>
     </row>
     <row r="9">
@@ -4877,13 +4877,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
         <v>367.0521161637701</v>
@@ -4892,13 +4892,13 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068685</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N9" t="n">
-        <v>2021.614212075287</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
         <v>2365.648505077179</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>77.69124027544164</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544164</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1965.153759365782</v>
+        <v>1042.192600840176</v>
       </c>
       <c r="C11" t="n">
-        <v>1571.978257868713</v>
+        <v>649.0170993431068</v>
       </c>
       <c r="D11" t="n">
-        <v>1571.978257868713</v>
+        <v>649.0170993431068</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.453214517072</v>
+        <v>246.4335744596513</v>
       </c>
       <c r="F11" t="n">
-        <v>784.5587760470498</v>
+        <v>246.4335744596513</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>1828.135914986518</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.648505077179</v>
+        <v>1438.683309919575</v>
       </c>
       <c r="Y11" t="n">
-        <v>2365.648505077179</v>
+        <v>1042.192600840176</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631988</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.648505077179</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>220.8324595377092</v>
+        <v>1413.191635871889</v>
       </c>
       <c r="C14" t="n">
-        <v>220.8324595377092</v>
+        <v>1020.016134374819</v>
       </c>
       <c r="D14" t="n">
-        <v>220.8324595377092</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="E14" t="n">
-        <v>220.8324595377092</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F14" t="n">
-        <v>220.8324595377092</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G14" t="n">
-        <v>220.8324595377092</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T14" t="n">
-        <v>1975.634347577647</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U14" t="n">
-        <v>1719.881618012245</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V14" t="n">
-        <v>1377.774808715764</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W14" t="n">
-        <v>1006.775773684051</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X14" t="n">
-        <v>617.3231686171081</v>
+        <v>1809.682344951288</v>
       </c>
       <c r="Y14" t="n">
-        <v>220.8324595377092</v>
+        <v>1413.191635871889</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>305.4650404492648</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>789.031126347578</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M15" t="n">
-        <v>1374.52913135418</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N15" t="n">
-        <v>1960.027136360782</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O15" t="n">
         <v>1960.027136360782</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1673.129190464088</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="C17" t="n">
-        <v>1279.953688967018</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
         <v>406.2953261290054</v>
@@ -5530,37 +5530,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.648505077179</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.648505077179</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.648505077179</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="Y17" t="n">
-        <v>2073.623936175485</v>
+        <v>756.8371493183852</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154359</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5639,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6021490532311</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>427.6021490532311</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>144.2717469844088</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>825.9296003819453</v>
+        <v>1242.824038851968</v>
       </c>
       <c r="C20" t="n">
-        <v>432.7540988848759</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154359</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154359</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L20" t="n">
-        <v>318.7636682303378</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M20" t="n">
-        <v>864.7645682749184</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N20" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W20" t="n">
-        <v>2012.367660239684</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.915055172741</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y20" t="n">
-        <v>1226.424346093342</v>
+        <v>1643.318784563364</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154359</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N21" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O21" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W22" t="n">
-        <v>689.7133721932184</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>455.6330499762015</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>232.5209887928449</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1078.618840366323</v>
+        <v>1089.660981010777</v>
       </c>
       <c r="C23" t="n">
-        <v>685.4433388692532</v>
+        <v>696.4854795137078</v>
       </c>
       <c r="D23" t="n">
-        <v>685.4433388692532</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E23" t="n">
         <v>386.2021781376249</v>
@@ -5983,10 +5983,10 @@
         <v>386.2021781376249</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6004,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T23" t="n">
-        <v>2844.462869050714</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U23" t="n">
         <v>2588.710139485313</v>
       </c>
       <c r="V23" t="n">
-        <v>2246.603330188831</v>
+        <v>2246.603330188832</v>
       </c>
       <c r="W23" t="n">
-        <v>1875.604295157118</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="X23" t="n">
-        <v>1875.604295157118</v>
+        <v>1486.151690090176</v>
       </c>
       <c r="Y23" t="n">
-        <v>1479.11358607772</v>
+        <v>1089.660981010777</v>
       </c>
     </row>
     <row r="24">
@@ -6053,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6065,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411551</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2530.19303163674</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2359.987913702729</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2359.987913702729</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2359.987913702729</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2359.987913702729</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2359.987913702729</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647964</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986228</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835724</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>2779.239312020902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>2715.401050328041</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>2715.401050328041</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>2715.401050328041</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>2715.401050328041</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2715.401050328041</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2715.401050328041</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.1437813709033</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C26" t="n">
-        <v>850.1437813709033</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D26" t="n">
-        <v>464.702652587571</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E26" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
         <v>62.11912770411553</v>
@@ -6253,25 +6253,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T26" t="n">
-        <v>2677.949313991765</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U26" t="n">
-        <v>2422.196584426364</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="V26" t="n">
-        <v>2080.089775129883</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="W26" t="n">
-        <v>1709.09074009817</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="X26" t="n">
-        <v>1647.129236161699</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y26" t="n">
-        <v>1250.6385270823</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.0961595639906</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>698.8910416299798</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
         <v>62.11912770411553</v>
@@ -6414,22 +6414,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W28" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1919.518325348037</v>
+        <v>1595.123960030147</v>
       </c>
       <c r="C29" t="n">
-        <v>1526.342823850968</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="D29" t="n">
-        <v>1294.75984656959</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="E29" t="n">
-        <v>892.1763216861347</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F29" t="n">
-        <v>475.2818832161124</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H29" t="n">
         <v>62.11912770411553</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W29" t="n">
-        <v>3105.956385205776</v>
+        <v>2696.964436459586</v>
       </c>
       <c r="X29" t="n">
-        <v>2716.503780138833</v>
+        <v>2307.511831392642</v>
       </c>
       <c r="Y29" t="n">
-        <v>2320.013071059434</v>
+        <v>1911.021122313243</v>
       </c>
     </row>
     <row r="30">
@@ -6551,10 +6551,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
         <v>1740.468202408463</v>
@@ -6651,13 +6651,13 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>727.847098413902</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
-        <v>442.408306655803</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>176.4289614766272</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
         <v>62.11912770411553</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1548.519290316325</v>
+        <v>1601.700500902976</v>
       </c>
       <c r="C32" t="n">
-        <v>1155.343788819255</v>
+        <v>1601.700500902976</v>
       </c>
       <c r="D32" t="n">
-        <v>769.902660035923</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E32" t="n">
-        <v>769.902660035923</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F32" t="n">
-        <v>353.0082215659007</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H32" t="n">
         <v>62.11912770411553</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V32" t="n">
-        <v>3105.956385205776</v>
+        <v>2391.647851681316</v>
       </c>
       <c r="W32" t="n">
-        <v>2734.957350174064</v>
+        <v>2391.647851681316</v>
       </c>
       <c r="X32" t="n">
-        <v>2345.50474510712</v>
+        <v>2002.195246614373</v>
       </c>
       <c r="Y32" t="n">
-        <v>1949.014036027722</v>
+        <v>2002.195246614373</v>
       </c>
     </row>
     <row r="33">
@@ -6788,16 +6788,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6888,16 +6888,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>611.4288749521137</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W34" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X34" t="n">
         <v>62.11912770411553</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1326.874862298514</v>
+        <v>1577.411516051556</v>
       </c>
       <c r="C35" t="n">
-        <v>1326.874862298514</v>
+        <v>1184.236014554486</v>
       </c>
       <c r="D35" t="n">
-        <v>941.4337335151823</v>
+        <v>1184.236014554486</v>
       </c>
       <c r="E35" t="n">
-        <v>941.4337335151823</v>
+        <v>781.6524896710307</v>
       </c>
       <c r="F35" t="n">
-        <v>524.5392950451601</v>
+        <v>781.6524896710307</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>368.4897341590338</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U35" t="n">
-        <v>2645.697186866948</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V35" t="n">
-        <v>2303.590377570466</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W35" t="n">
-        <v>1932.591342538753</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="X35" t="n">
-        <v>1543.13873747181</v>
+        <v>2374.396970842351</v>
       </c>
       <c r="Y35" t="n">
-        <v>1326.874862298514</v>
+        <v>1977.906261762953</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>1704.041064410407</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1949.449642343508</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1949.449642343508</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2465.969924934489</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>3105.956385205776</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U37" t="n">
-        <v>3105.956385205776</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V37" t="n">
-        <v>3105.956385205776</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W37" t="n">
-        <v>2822.625983136954</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>2588.545660919937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>2365.43359973658</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1881.525411633559</v>
+        <v>1880.963859200969</v>
       </c>
       <c r="C38" t="n">
-        <v>1488.349910136489</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="D38" t="n">
-        <v>1488.349910136489</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="E38" t="n">
-        <v>1085.766385253034</v>
+        <v>1085.204832820444</v>
       </c>
       <c r="F38" t="n">
-        <v>668.8719467830116</v>
+        <v>668.3103943504221</v>
       </c>
       <c r="G38" t="n">
-        <v>255.7091912710147</v>
+        <v>255.1476388384253</v>
       </c>
       <c r="H38" t="n">
         <v>200.4562446116507</v>
@@ -7201,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T38" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U38" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V38" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W38" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X38" t="n">
-        <v>2678.510866424355</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y38" t="n">
-        <v>2282.020157344956</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>697.5868050664922</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5868050664922</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5868050664922</v>
+        <v>217.677939844913</v>
       </c>
       <c r="E40" t="n">
-        <v>543.177667430203</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>385.851732643176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
         <v>62.11912770411553</v>
@@ -7359,25 +7359,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V40" t="n">
-        <v>697.5868050664922</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="W40" t="n">
-        <v>697.5868050664922</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="X40" t="n">
-        <v>697.5868050664922</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="Y40" t="n">
-        <v>697.5868050664922</v>
+        <v>239.5922228383523</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1192.540435146691</v>
+        <v>1880.963859200969</v>
       </c>
       <c r="C41" t="n">
-        <v>799.3649336496217</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="D41" t="n">
-        <v>799.3649336496217</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>799.3649336496217</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U41" t="n">
-        <v>3092.084339332624</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V41" t="n">
-        <v>2749.977530036143</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W41" t="n">
-        <v>2378.97849500443</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X41" t="n">
-        <v>1989.525889937487</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y41" t="n">
-        <v>1593.035180858088</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
         <v>62.11912770411553</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V43" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W43" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>178.0676910913762</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1687.93534806666</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="C44" t="n">
-        <v>1294.75984656959</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="D44" t="n">
-        <v>1294.75984656959</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="E44" t="n">
-        <v>892.1763216861347</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F44" t="n">
-        <v>475.2818832161124</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7684,16 +7684,16 @@
         <v>2715.942227706244</v>
       </c>
       <c r="V44" t="n">
-        <v>2715.942227706244</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="W44" t="n">
-        <v>2715.942227706244</v>
+        <v>2216.951498451409</v>
       </c>
       <c r="X44" t="n">
-        <v>2484.920802857455</v>
+        <v>1827.498893384466</v>
       </c>
       <c r="Y44" t="n">
-        <v>2088.430093778056</v>
+        <v>1431.008184305067</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7836,16 +7836,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U46" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V46" t="n">
-        <v>412.1480133083932</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
         <v>62.11912770411553</v>
@@ -7981,25 +7981,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>559.0064165671349</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>165.3117977752925</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>581.2880043687411</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8230,7 +8230,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>237.313040054171</v>
       </c>
       <c r="N6" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,10 +8455,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140705</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>242.7955693701917</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8540,16 +8540,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>99.85242174740807</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>440.196945759487</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8692,10 +8692,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8704,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8932,22 +8932,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>612.8252961895594</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9008,19 +9008,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3566023512336</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>92.83741255226282</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9178,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9245,16 +9245,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>415.8062469585524</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9263,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9406,7 +9406,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>427.4407941030111</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9482,22 +9482,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N21" t="n">
-        <v>588.7923855055292</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9719,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>301.8549375253374</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10199,13 +10199,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10436,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384017</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10673,7 +10673,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069888</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10843,7 +10843,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10904,16 +10904,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11141,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11387,10 +11387,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>262.2796536490551</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22600,22 +22600,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>18.45134006363588</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,16 +22758,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>103.421478775927</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>138.3944968283459</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22849,10 +22849,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -22998,19 +22998,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24.04094380275529</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>145.3162495068627</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>227.8352342700401</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23202,7 +23202,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>240.3576544903973</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>31.73789671649632</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>348.85547538081</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
@@ -23320,13 +23320,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,25 +23497,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>289.1320446179121</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>149.0579253873703</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23782,25 +23782,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>103.4214787759271</v>
+        <v>277.4494406131211</v>
       </c>
     </row>
     <row r="18">
@@ -23943,19 +23943,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>135.7503298808102</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23980,7 +23980,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24031,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>17.54100829227502</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>101.1463791817981</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>24.04094380275529</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>74.40624913317686</v>
       </c>
       <c r="E23" t="n">
-        <v>102.3089405103088</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24381,7 +24381,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>170.1619822375162</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>324.2161901191674</v>
+        <v>29.61143348494693</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24654,16 +24654,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>83.75160759401706</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>152.3195699869353</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -24742,7 +24742,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>121.0509250337095</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>55.24729351617219</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25128,7 +25128,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>17.53531953880514</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>178.4245655670422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.04094380275544</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25365,22 +25365,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.1418027364039</v>
+        <v>266.6977396446674</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -25456,7 +25456,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>132.3816418030056</v>
       </c>
       <c r="E40" t="n">
-        <v>1.138177759463218</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25599,16 +25599,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>190.4884914725322</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>239.4618768553266</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>39.2877042131223</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>211.9739639226259</v>
       </c>
       <c r="X44" t="n">
-        <v>156.8468684159734</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.708020294746</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632558.5713393175</v>
+        <v>632558.5713393182</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632558.5713393177</v>
+        <v>632558.5713393181</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632558.5713393178</v>
+        <v>632558.5713393182</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632558.5713393175</v>
+        <v>632558.5713393181</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632558.5713393179</v>
+        <v>632558.5713393182</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712629.0049797655</v>
+        <v>712629.0049797661</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712629.0049797661</v>
+        <v>712629.0049797659</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712629.0049797657</v>
+        <v>712629.0049797659</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712629.0049797657</v>
+        <v>712629.0049797659</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712629.0049797657</v>
+        <v>712629.0049797655</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169394.3482070291</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="C2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="D2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="E2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="F2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="G2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="H2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="I2" t="n">
         <v>190834.012360257</v>
@@ -26346,7 +26346,7 @@
         <v>190834.012360257</v>
       </c>
       <c r="M2" t="n">
-        <v>190834.0123602571</v>
+        <v>190834.012360257</v>
       </c>
       <c r="N2" t="n">
         <v>190834.012360257</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>11907.28194961663</v>
       </c>
       <c r="C4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="D4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="E4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="F4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="G4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="H4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="I4" t="n">
         <v>13453.11359961298</v>
@@ -26456,10 +26456,10 @@
         <v>13453.11359961299</v>
       </c>
       <c r="O4" t="n">
+        <v>13453.11359961299</v>
+      </c>
+      <c r="P4" t="n">
         <v>13453.11359961298</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13453.11359961299</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110294.1970115055</v>
+        <v>-110968.2231377255</v>
       </c>
       <c r="C6" t="n">
-        <v>87901.60898023943</v>
+        <v>87227.58285401951</v>
       </c>
       <c r="D6" t="n">
-        <v>87901.60898023949</v>
+        <v>87227.58285401942</v>
       </c>
       <c r="E6" t="n">
-        <v>121529.2089802394</v>
+        <v>120855.1828540195</v>
       </c>
       <c r="F6" t="n">
-        <v>121529.2089802395</v>
+        <v>120855.1828540194</v>
       </c>
       <c r="G6" t="n">
-        <v>121529.2089802394</v>
+        <v>120855.1828540195</v>
       </c>
       <c r="H6" t="n">
-        <v>121529.2089802394</v>
+        <v>120855.1828540195</v>
       </c>
       <c r="I6" t="n">
-        <v>80954.50875759716</v>
+        <v>80423.41372573191</v>
       </c>
       <c r="J6" t="n">
-        <v>-24569.07266008717</v>
+        <v>-25100.16769195242</v>
       </c>
       <c r="K6" t="n">
-        <v>130170.3617055162</v>
+        <v>129639.266673651</v>
       </c>
       <c r="L6" t="n">
-        <v>130170.3617055163</v>
+        <v>129639.2666736511</v>
       </c>
       <c r="M6" t="n">
-        <v>130170.3617055163</v>
+        <v>129639.266673651</v>
       </c>
       <c r="N6" t="n">
-        <v>130170.3617055163</v>
+        <v>129639.266673651</v>
       </c>
       <c r="O6" t="n">
-        <v>130170.3617055162</v>
+        <v>129639.266673651</v>
       </c>
       <c r="P6" t="n">
-        <v>130170.3617055162</v>
+        <v>129639.2666736511</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>409.2813649694077</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>75.25145091837423</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9158915145745</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34950,7 +34950,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="N6" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835787</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>98.29687095179952</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>7.465299698096163</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>347.5093868705981</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35424,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>260.7596670179002</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>7.465299698096163</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35898,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>330.4341341043857</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35983,7 +35983,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>274.1926243725193</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N21" t="n">
-        <v>503.4202726513626</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37156,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38107,10 +38107,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
